--- a/各地组播源汇总/上海.xlsx
+++ b/各地组播源汇总/上海.xlsx
@@ -12,7 +12,7 @@
     <sheet name="可用IP地址" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$E$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$F$167</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">移动itv!$A$1:$E$1105</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6555" uniqueCount="281">
   <si>
     <t>电信组播</t>
   </si>
@@ -665,9 +665,6 @@
     <t>风云音乐</t>
   </si>
   <si>
-    <t>文化精品</t>
-  </si>
-  <si>
     <t>CCTV-4K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,9 +723,6 @@
     <t>/udp/239.45.0.54:5140</t>
   </si>
   <si>
-    <t>央视高网</t>
-  </si>
-  <si>
     <t>CETV-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,6 +771,138 @@
   </si>
   <si>
     <t>116.227.10.196:2048</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.61:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/233.18.204.51:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.3.209:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/233.18.204.57:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.3.236:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/233.18.204.53:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央视文化精品</t>
+  </si>
+  <si>
+    <t>高尔夫网球</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$上海电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.1.17:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/233.18.204.55:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.59:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.58:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.54:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.63:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.47:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.66:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.49:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.65:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.115:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.48:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.46:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.45:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.44:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.175:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.173:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.174:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.188:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.187:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.176:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.180:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.184:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.183:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.185:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.182:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.181:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.186:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.179:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.177:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.178:5140</t>
   </si>
 </sst>
 </file>
@@ -19949,7 +20075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:F605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19959,10 +20085,11 @@
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -19978,8 +20105,11 @@
       <c r="E1" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -19995,8 +20125,11 @@
       <c r="E2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -20012,8 +20145,11 @@
       <c r="E3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -20029,8 +20165,11 @@
       <c r="E4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>134</v>
       </c>
@@ -20044,12 +20183,15 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -20061,12 +20203,15 @@
         <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -20078,12 +20223,15 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -20095,12 +20243,15 @@
         <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -20112,12 +20263,15 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -20129,12 +20283,15 @@
         <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -20146,12 +20303,15 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -20163,12 +20323,15 @@
         <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -20180,12 +20343,15 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+      <c r="F13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
@@ -20197,12 +20363,15 @@
         <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="F14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -20214,12 +20383,15 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="F15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -20231,12 +20403,15 @@
         <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -20248,12 +20423,15 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -20265,12 +20443,15 @@
         <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -20282,12 +20463,15 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="F19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -20299,12 +20483,15 @@
         <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="F20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -20316,12 +20503,15 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="F21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -20333,12 +20523,15 @@
         <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -20350,12 +20543,15 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -20367,12 +20563,15 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="F24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -20384,12 +20583,15 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -20401,12 +20603,15 @@
         <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -20418,12 +20623,15 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
@@ -20435,12 +20643,15 @@
         <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -20452,12 +20663,15 @@
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
@@ -20469,12 +20683,15 @@
         <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
@@ -20486,12 +20703,15 @@
         <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
@@ -20503,12 +20723,15 @@
         <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
@@ -20520,12 +20743,15 @@
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
@@ -20537,12 +20763,15 @@
         <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -20554,12 +20783,15 @@
         <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>25</v>
@@ -20571,12 +20803,15 @@
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -20588,12 +20823,15 @@
         <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>25</v>
@@ -20605,12 +20843,15 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="F38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>25</v>
@@ -20622,12 +20863,15 @@
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="F39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>25</v>
@@ -20639,12 +20883,15 @@
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>25</v>
@@ -20656,12 +20903,15 @@
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -20673,12 +20923,15 @@
         <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>25</v>
@@ -20690,12 +20943,15 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+      <c r="F43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>25</v>
@@ -20707,12 +20963,15 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>25</v>
@@ -20724,12 +20983,15 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
@@ -20741,12 +21003,15 @@
         <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="F46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>25</v>
@@ -20758,12 +21023,15 @@
         <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>25</v>
@@ -20775,12 +21043,15 @@
         <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="F48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>25</v>
@@ -20792,12 +21063,15 @@
         <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="F49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>25</v>
@@ -20809,12 +21083,15 @@
         <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="F50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
@@ -20826,12 +21103,15 @@
         <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>25</v>
@@ -20843,12 +21123,15 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="F52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>25</v>
@@ -20860,12 +21143,15 @@
         <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>25</v>
@@ -20877,12 +21163,15 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+      <c r="F54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
@@ -20894,12 +21183,15 @@
         <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+      <c r="F55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -20911,12 +21203,15 @@
         <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="F56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>25</v>
@@ -20928,12 +21223,15 @@
         <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>25</v>
@@ -20945,12 +21243,15 @@
         <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>25</v>
@@ -20959,32 +21260,38 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
         <v>135</v>
       </c>
-      <c r="E59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" t="s">
-        <v>31</v>
-      </c>
       <c r="E60" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -20996,12 +21303,15 @@
         <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
@@ -21013,12 +21323,15 @@
         <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+      <c r="F62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>25</v>
@@ -21030,12 +21343,15 @@
         <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
@@ -21047,12 +21363,15 @@
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+      <c r="F64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
@@ -21061,15 +21380,18 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+      <c r="F65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>
@@ -21078,15 +21400,18 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="F66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>25</v>
@@ -21098,12 +21423,15 @@
         <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="F67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>25</v>
@@ -21115,12 +21443,15 @@
         <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -21132,12 +21463,15 @@
         <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="F69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
@@ -21149,12 +21483,15 @@
         <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
@@ -21166,12 +21503,15 @@
         <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>25</v>
@@ -21183,12 +21523,15 @@
         <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
@@ -21200,12 +21543,15 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="F73" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
@@ -21217,12 +21563,15 @@
         <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="F74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
@@ -21234,12 +21583,15 @@
         <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="F75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>25</v>
@@ -21251,12 +21603,15 @@
         <v>135</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="F76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
@@ -21268,12 +21623,15 @@
         <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="F77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -21285,12 +21643,15 @@
         <v>135</v>
       </c>
       <c r="E78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="F78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
@@ -21302,12 +21663,15 @@
         <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="F79" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>25</v>
@@ -21319,12 +21683,15 @@
         <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
@@ -21336,12 +21703,15 @@
         <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="F81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>25</v>
@@ -21353,12 +21723,15 @@
         <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="F82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
@@ -21370,12 +21743,15 @@
         <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
@@ -21387,12 +21763,15 @@
         <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="F84" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>25</v>
@@ -21404,12 +21783,15 @@
         <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -21421,12 +21803,15 @@
         <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="F86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>25</v>
@@ -21438,12 +21823,15 @@
         <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="F87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>25</v>
@@ -21455,12 +21843,15 @@
         <v>135</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="F88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>25</v>
@@ -21472,12 +21863,15 @@
         <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="F89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>25</v>
@@ -21489,12 +21883,15 @@
         <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="F90" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -21506,12 +21903,15 @@
         <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="F91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>25</v>
@@ -21523,12 +21923,15 @@
         <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>25</v>
@@ -21540,12 +21943,15 @@
         <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="F93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>25</v>
@@ -21557,12 +21963,15 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+      <c r="F94" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>25</v>
@@ -21574,12 +21983,15 @@
         <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>25</v>
@@ -21591,12 +22003,15 @@
         <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="F96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>25</v>
@@ -21608,12 +22023,15 @@
         <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="F97" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>25</v>
@@ -21625,12 +22043,15 @@
         <v>135</v>
       </c>
       <c r="E98" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="F98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>25</v>
@@ -21642,12 +22063,15 @@
         <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="F99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>25</v>
@@ -21659,243 +22083,1377 @@
         <v>135</v>
       </c>
       <c r="E100" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" t="s">
+        <v>231</v>
+      </c>
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>233</v>
+      </c>
+      <c r="F109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" t="s">
+        <v>225</v>
+      </c>
+      <c r="F110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" t="s">
+        <v>269</v>
+      </c>
+      <c r="F112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>269</v>
+      </c>
+      <c r="F113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" t="s">
+        <v>209</v>
+      </c>
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>209</v>
+      </c>
+      <c r="F115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" t="s">
+        <v>211</v>
+      </c>
+      <c r="F118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="s">
+        <v>211</v>
+      </c>
+      <c r="F119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" t="s">
+        <v>270</v>
+      </c>
+      <c r="F121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" t="s">
+        <v>216</v>
+      </c>
+      <c r="F122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" t="s">
+        <v>216</v>
+      </c>
+      <c r="F123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" t="s">
+        <v>271</v>
+      </c>
+      <c r="F124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" t="s">
+        <v>221</v>
+      </c>
+      <c r="F126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" t="s">
+        <v>221</v>
+      </c>
+      <c r="F127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" t="s">
+        <v>272</v>
+      </c>
+      <c r="F128" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" t="s">
+        <v>272</v>
+      </c>
+      <c r="F129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F131" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" t="s">
+        <v>273</v>
+      </c>
+      <c r="F132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" t="s">
+        <v>222</v>
+      </c>
+      <c r="F134" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" t="s">
+        <v>274</v>
+      </c>
+      <c r="F136" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="s">
+        <v>274</v>
+      </c>
+      <c r="F137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" t="s">
+        <v>219</v>
+      </c>
+      <c r="F138" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" t="s">
+        <v>275</v>
+      </c>
+      <c r="F140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" t="s">
+        <v>275</v>
+      </c>
+      <c r="F141" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>135</v>
+      </c>
+      <c r="E142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F142" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" t="s">
+        <v>218</v>
+      </c>
+      <c r="F144" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" t="s">
+        <v>218</v>
+      </c>
+      <c r="F145" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>135</v>
+      </c>
+      <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>276</v>
+      </c>
+      <c r="F147" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>135</v>
+      </c>
+      <c r="E148" t="s">
+        <v>223</v>
+      </c>
+      <c r="F148" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" t="s">
+        <v>223</v>
+      </c>
+      <c r="F149" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>135</v>
+      </c>
+      <c r="E150" t="s">
+        <v>250</v>
+      </c>
+      <c r="F150" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" t="s">
+        <v>224</v>
+      </c>
+      <c r="F151" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" t="s">
+        <v>277</v>
+      </c>
+      <c r="F152" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>277</v>
+      </c>
+      <c r="F153" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" t="s">
+        <v>135</v>
+      </c>
+      <c r="E154" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
+      <c r="F154" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" t="s">
+        <v>215</v>
+      </c>
+      <c r="F155" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>135</v>
+      </c>
+      <c r="E156" t="s">
+        <v>278</v>
+      </c>
+      <c r="F156" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" t="s">
+        <v>278</v>
+      </c>
+      <c r="F157" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158" t="s">
+        <v>212</v>
+      </c>
+      <c r="F158" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>212</v>
+      </c>
+      <c r="F159" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" t="s">
+        <v>135</v>
+      </c>
+      <c r="E160" t="s">
+        <v>279</v>
+      </c>
+      <c r="F160" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>279</v>
+      </c>
+      <c r="F161" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="B162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" t="s">
+        <v>135</v>
+      </c>
+      <c r="E162" t="s">
+        <v>213</v>
+      </c>
+      <c r="F162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
         <v>31</v>
       </c>
-      <c r="E101" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="E163" t="s">
+        <v>213</v>
+      </c>
+      <c r="F163" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" t="s">
+        <v>135</v>
+      </c>
+      <c r="E164" t="s">
+        <v>214</v>
+      </c>
+      <c r="F164" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" t="s">
+        <v>214</v>
+      </c>
+      <c r="F165" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>135</v>
+      </c>
+      <c r="E166" t="s">
+        <v>280</v>
+      </c>
+      <c r="F166" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" t="s">
+        <v>280</v>
+      </c>
+      <c r="F167" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.15">
@@ -22993,8 +24551,200 @@
     <row r="541" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B541" s="1"/>
     </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B578" s="1"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B583" s="1"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B594" s="1"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B595" s="1"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B599" s="1"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B605" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E55"/>
+  <autoFilter ref="A1:F167"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23027,7 +24777,7 @@
         <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -23043,7 +24793,7 @@
         <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -23051,7 +24801,7 @@
         <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -23059,7 +24809,7 @@
         <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">

--- a/各地组播源汇总/上海.xlsx
+++ b/各地组播源汇总/上海.xlsx
@@ -12,7 +12,7 @@
     <sheet name="可用IP地址" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$F$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">电信组播!$A$1:$F$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">移动itv!$A$1:$E$1105</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6555" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="439">
   <si>
     <t>电信组播</t>
   </si>
@@ -553,22 +553,6 @@
     <t>CHC动作电影</t>
   </si>
   <si>
-    <t>逗号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[2409:8087:5e01:24::03]:6610</t>
   </si>
   <si>
@@ -752,10 +736,6 @@
     <t>/udp/239.45.1.50:5140</t>
   </si>
   <si>
-    <t>IP地址1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/udp/239.45.1.51:5140</t>
   </si>
   <si>
@@ -903,6 +883,518 @@
   </si>
   <si>
     <t>/udp/233.18.204.178:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.175:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.3.145:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/233.18.204.52:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.109:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.68:5140</t>
+  </si>
+  <si>
+    <t>CCTV-2</t>
+  </si>
+  <si>
+    <t>CCTV-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.1.68:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.69:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.2:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.70:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.71:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.70:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.72:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.67:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.56:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.73:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.74:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.71:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.75:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.4:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.8:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.76:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.77:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.196:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.10:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.78:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.79:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.198:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.23:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.80:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.81:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.200:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.10:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.12:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.114:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.83:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.52:5140</t>
+  </si>
+  <si>
+    <t>CGTN英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.1.194:5140</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.28:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.69:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/udp/239.45.0.34:5140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.93:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.120:5140</t>
+  </si>
+  <si>
+    <t>北京卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.87:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.229:5140</t>
+  </si>
+  <si>
+    <t>兵团卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.148:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.117:5140</t>
+  </si>
+  <si>
+    <t>重庆卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.100:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.84:5140</t>
+  </si>
+  <si>
+    <t>东南卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.94:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.121:5140</t>
+  </si>
+  <si>
+    <t>甘肃卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.110:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.234:5140</t>
+  </si>
+  <si>
+    <t>广东卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.88:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.230:5140</t>
+  </si>
+  <si>
+    <t>广西卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.107:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.5:5140</t>
+  </si>
+  <si>
+    <t>贵州卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.101:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.80:5140</t>
+  </si>
+  <si>
+    <t>海南卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.102:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.81:5140</t>
+  </si>
+  <si>
+    <t>河北卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.103:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.44:5140</t>
+  </si>
+  <si>
+    <t>河南卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.105:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.3:5140</t>
+  </si>
+  <si>
+    <t>黑龙江卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.90:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.232:5140</t>
+  </si>
+  <si>
+    <t>湖北卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.92:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.239:5140</t>
+  </si>
+  <si>
+    <t>湖南卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.86:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.228:5140</t>
+  </si>
+  <si>
+    <t>吉林卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.108:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.6:5140</t>
+  </si>
+  <si>
+    <t>江苏卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.85:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.177:5140</t>
+  </si>
+  <si>
+    <t>江西卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.95:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.122:5140</t>
+  </si>
+  <si>
+    <t>康巴卫视</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.251:5140</t>
+  </si>
+  <si>
+    <t>辽宁卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.96:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.123:5140</t>
+  </si>
+  <si>
+    <t>内蒙古卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.141:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.238:5140</t>
+  </si>
+  <si>
+    <t>宁夏卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.117:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.213:5140</t>
+  </si>
+  <si>
+    <t>青海卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.112:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.230:5140</t>
+  </si>
+  <si>
+    <t>三沙卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.172:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.82:5140</t>
+  </si>
+  <si>
+    <t>山东卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.91:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.238:5140</t>
+  </si>
+  <si>
+    <t>山西卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.132:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.229:5140</t>
+  </si>
+  <si>
+    <t>陕西卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.135:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.232:5140</t>
+  </si>
+  <si>
+    <t>深圳卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.89:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.231:5140</t>
+  </si>
+  <si>
+    <t>四川卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.99:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.83:5140</t>
+  </si>
+  <si>
+    <t>天津卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.97:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.124:5140</t>
+  </si>
+  <si>
+    <t>西藏卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.134:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.231:5140</t>
+  </si>
+  <si>
+    <t>新疆卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.147:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.1.116:5140</t>
+  </si>
+  <si>
+    <t>延边卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.155:5140</t>
+  </si>
+  <si>
+    <t>云南卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.106:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.0.4:5140</t>
+  </si>
+  <si>
+    <t>浙江卫视</t>
+  </si>
+  <si>
+    <t>/udp/233.18.204.84:5140</t>
+  </si>
+  <si>
+    <t>/udp/239.45.3.178:5140</t>
+  </si>
+  <si>
+    <t>IP地址2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -20075,14 +20567,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F605"/>
+  <dimension ref="A1:F604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
@@ -20094,24 +20586,24 @@
         <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
+      <c r="A2" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -20123,15 +20615,15 @@
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
+      <c r="A3" t="s">
+        <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -20140,38 +20632,38 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>135</v>
       </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>134</v>
+      <c r="A5" t="s">
+        <v>278</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -20180,18 +20672,18 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>134</v>
+      <c r="A6" t="s">
+        <v>282</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -20203,15 +20695,15 @@
         <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>134</v>
+      <c r="A7" t="s">
+        <v>282</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -20220,18 +20712,18 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
+      <c r="A8" t="s">
+        <v>282</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -20243,15 +20735,15 @@
         <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+      <c r="A9" t="s">
+        <v>282</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -20260,18 +20752,18 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
+      <c r="A10" t="s">
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -20283,15 +20775,15 @@
         <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
+      <c r="A11" t="s">
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -20300,18 +20792,18 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>140</v>
+      <c r="A12" t="s">
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -20323,15 +20815,15 @@
         <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>140</v>
+      <c r="A13" t="s">
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -20340,18 +20832,18 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>140</v>
+      <c r="A14" t="s">
+        <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
@@ -20363,15 +20855,15 @@
         <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>140</v>
+      <c r="A15" t="s">
+        <v>284</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -20380,18 +20872,18 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>141</v>
+      <c r="A16" t="s">
+        <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -20403,15 +20895,15 @@
         <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>141</v>
+      <c r="A17" t="s">
+        <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -20420,18 +20912,18 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>285</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -20443,15 +20935,15 @@
         <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>285</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -20460,18 +20952,18 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>285</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -20483,15 +20975,15 @@
         <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -20500,18 +20992,18 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
+      <c r="A22" t="s">
+        <v>286</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -20523,15 +21015,15 @@
         <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
+      <c r="A23" t="s">
+        <v>286</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -20540,18 +21032,18 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
+      <c r="A24" t="s">
+        <v>286</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -20563,15 +21055,15 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -20580,18 +21072,18 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
+      <c r="A26" t="s">
+        <v>287</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -20603,15 +21095,15 @@
         <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
+      <c r="A27" t="s">
+        <v>287</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -20620,18 +21112,18 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
+      <c r="A28" t="s">
+        <v>287</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
@@ -20643,15 +21135,15 @@
         <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
+      <c r="A29" t="s">
+        <v>287</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -20660,18 +21152,18 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
+      <c r="A30" t="s">
+        <v>288</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
@@ -20683,15 +21175,15 @@
         <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
+      <c r="A31" t="s">
+        <v>288</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
@@ -20700,18 +21192,18 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
+      <c r="A32" t="s">
+        <v>288</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
@@ -20723,15 +21215,15 @@
         <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>10</v>
+      <c r="A33" t="s">
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
@@ -20740,18 +21232,18 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
+      <c r="A34" t="s">
+        <v>289</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
@@ -20763,15 +21255,15 @@
         <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
+      <c r="A35" t="s">
+        <v>289</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -20780,18 +21272,18 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
+      <c r="A36" t="s">
+        <v>289</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>25</v>
@@ -20803,15 +21295,15 @@
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
+      <c r="A37" t="s">
+        <v>289</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -20820,18 +21312,18 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
+      <c r="A38" t="s">
+        <v>290</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>25</v>
@@ -20843,15 +21335,15 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
+      <c r="A39" t="s">
+        <v>290</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>25</v>
@@ -20860,18 +21352,18 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="F39" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>150</v>
+      <c r="A40" t="s">
+        <v>290</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>25</v>
@@ -20883,15 +21375,15 @@
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>150</v>
+      <c r="A41" t="s">
+        <v>290</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>25</v>
@@ -20900,18 +21392,18 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>150</v>
+      <c r="A42" t="s">
+        <v>291</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -20923,15 +21415,15 @@
         <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="F42" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>150</v>
+      <c r="A43" t="s">
+        <v>291</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>25</v>
@@ -20940,18 +21432,18 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
+      <c r="A44" t="s">
+        <v>291</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>25</v>
@@ -20963,15 +21455,15 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
+      <c r="A45" t="s">
+        <v>291</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>25</v>
@@ -20980,18 +21472,18 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>13</v>
+      <c r="A46" t="s">
+        <v>292</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
@@ -21003,15 +21495,15 @@
         <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>13</v>
+      <c r="A47" t="s">
+        <v>292</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>25</v>
@@ -21020,18 +21512,18 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>13</v>
+      <c r="A48" t="s">
+        <v>292</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>25</v>
@@ -21043,15 +21535,15 @@
         <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="F48" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
+      <c r="A49" t="s">
+        <v>292</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>25</v>
@@ -21060,18 +21552,18 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>17</v>
+      <c r="A50" t="s">
+        <v>293</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>25</v>
@@ -21083,15 +21575,15 @@
         <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="F50" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
+      <c r="A51" t="s">
+        <v>293</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
@@ -21100,18 +21592,18 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="F51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
+      <c r="A52" t="s">
+        <v>293</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>25</v>
@@ -21123,15 +21615,15 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
+      <c r="A53" t="s">
+        <v>293</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>25</v>
@@ -21140,18 +21632,18 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="F53" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
+      <c r="A54" t="s">
+        <v>294</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>25</v>
@@ -21163,15 +21655,15 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
+      <c r="A55" t="s">
+        <v>294</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
@@ -21180,18 +21672,18 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F55" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
+      <c r="A56" t="s">
+        <v>294</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -21203,15 +21695,15 @@
         <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>319</v>
       </c>
       <c r="F56" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>2</v>
+      <c r="A57" t="s">
+        <v>294</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>25</v>
@@ -21220,18 +21712,18 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>319</v>
       </c>
       <c r="F57" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
+      <c r="A58" t="s">
+        <v>295</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>25</v>
@@ -21243,15 +21735,15 @@
         <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>2</v>
+      <c r="A59" t="s">
+        <v>295</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>25</v>
@@ -21260,18 +21752,18 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>158</v>
+      <c r="A60" t="s">
+        <v>295</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>25</v>
@@ -21283,15 +21775,15 @@
         <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>158</v>
+      <c r="A61" t="s">
+        <v>295</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -21300,18 +21792,18 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>158</v>
+      <c r="A62" t="s">
+        <v>296</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
@@ -21323,15 +21815,15 @@
         <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>158</v>
+      <c r="A63" t="s">
+        <v>296</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>25</v>
@@ -21340,18 +21832,18 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="F63" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>158</v>
+      <c r="A64" t="s">
+        <v>296</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
@@ -21363,15 +21855,15 @@
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>158</v>
+      <c r="A65" t="s">
+        <v>296</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
@@ -21380,18 +21872,18 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>8</v>
+      <c r="A66" t="s">
+        <v>297</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>
@@ -21403,15 +21895,15 @@
         <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>8</v>
+      <c r="A67" t="s">
+        <v>297</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>25</v>
@@ -21420,18 +21912,18 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="F67" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
+      <c r="A68" t="s">
+        <v>297</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>25</v>
@@ -21443,15 +21935,15 @@
         <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
+      <c r="A69" t="s">
+        <v>297</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -21460,18 +21952,18 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="F69" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>7</v>
+      <c r="A70" t="s">
+        <v>297</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
@@ -21483,15 +21975,15 @@
         <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>7</v>
+      <c r="A71" t="s">
+        <v>297</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
@@ -21500,18 +21992,18 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>7</v>
+      <c r="A72" t="s">
+        <v>298</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>25</v>
@@ -21523,15 +22015,15 @@
         <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>7</v>
+      <c r="A73" t="s">
+        <v>298</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
@@ -21540,18 +22032,18 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>22</v>
+      <c r="A74" t="s">
+        <v>298</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
@@ -21563,15 +22055,15 @@
         <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>328</v>
       </c>
       <c r="F74" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>22</v>
+      <c r="A75" t="s">
+        <v>298</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
@@ -21580,18 +22072,18 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>25</v>
@@ -21603,15 +22095,15 @@
         <v>135</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
@@ -21623,15 +22115,15 @@
         <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F77" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -21643,15 +22135,15 @@
         <v>135</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="F78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
@@ -21663,15 +22155,15 @@
         <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="F79" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>25</v>
@@ -21683,15 +22175,15 @@
         <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
@@ -21700,18 +22192,18 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>25</v>
@@ -21720,18 +22212,18 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
@@ -21743,15 +22235,15 @@
         <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="F83" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
@@ -21763,15 +22255,15 @@
         <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="F84" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>25</v>
@@ -21783,15 +22275,15 @@
         <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="F85" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -21803,15 +22295,15 @@
         <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>25</v>
@@ -21820,18 +22312,18 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>25</v>
@@ -21840,18 +22332,18 @@
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>25</v>
@@ -21863,15 +22355,15 @@
         <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>25</v>
@@ -21883,15 +22375,15 @@
         <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>25</v>
@@ -21903,15 +22395,15 @@
         <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F91" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>25</v>
@@ -21923,15 +22415,15 @@
         <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>25</v>
@@ -21943,15 +22435,15 @@
         <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="F93" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>170</v>
+      <c r="A94" t="s">
+        <v>330</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>25</v>
@@ -21963,15 +22455,15 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F94" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>170</v>
+      <c r="A95" t="s">
+        <v>330</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>25</v>
@@ -21980,18 +22472,18 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E95" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="F95" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>25</v>
@@ -22003,15 +22495,15 @@
         <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>25</v>
@@ -22023,15 +22515,15 @@
         <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>25</v>
@@ -22043,15 +22535,15 @@
         <v>135</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>25</v>
@@ -22063,15 +22555,15 @@
         <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>25</v>
@@ -22083,15 +22575,15 @@
         <v>135</v>
       </c>
       <c r="E100" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>25</v>
@@ -22100,18 +22592,18 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -22120,18 +22612,18 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
-      </c>
-      <c r="E102" t="s">
-        <v>230</v>
+        <v>135</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F102" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>25</v>
@@ -22143,15 +22635,15 @@
         <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="F103" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>25</v>
@@ -22163,15 +22655,15 @@
         <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>25</v>
@@ -22183,15 +22675,15 @@
         <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F105" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>25</v>
@@ -22203,15 +22695,15 @@
         <v>135</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>25</v>
@@ -22220,18 +22712,18 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="F107" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>25</v>
@@ -22240,18 +22732,18 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E108" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>25</v>
@@ -22263,15 +22755,15 @@
         <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F109" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>25</v>
@@ -22283,15 +22775,15 @@
         <v>135</v>
       </c>
       <c r="E110" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F110" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>25</v>
@@ -22303,15 +22795,15 @@
         <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F111" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>25</v>
@@ -22323,15 +22815,15 @@
         <v>135</v>
       </c>
       <c r="E112" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -22343,15 +22835,15 @@
         <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>25</v>
@@ -22363,15 +22855,15 @@
         <v>135</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="F114" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>25</v>
@@ -22383,15 +22875,15 @@
         <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="F115" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>25</v>
@@ -22403,15 +22895,15 @@
         <v>135</v>
       </c>
       <c r="E116" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>25</v>
@@ -22423,15 +22915,15 @@
         <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>25</v>
@@ -22443,15 +22935,15 @@
         <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>25</v>
@@ -22463,15 +22955,15 @@
         <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>25</v>
@@ -22482,16 +22974,16 @@
       <c r="D120" t="s">
         <v>135</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>270</v>
+      <c r="E120" t="s">
+        <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>25</v>
@@ -22503,15 +22995,15 @@
         <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>25</v>
@@ -22523,15 +23015,15 @@
         <v>135</v>
       </c>
       <c r="E122" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>25</v>
@@ -22543,15 +23035,15 @@
         <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="F123" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>25</v>
@@ -22563,15 +23055,15 @@
         <v>135</v>
       </c>
       <c r="E124" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="F124" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>25</v>
@@ -22583,15 +23075,15 @@
         <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="F125" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>25</v>
@@ -22603,15 +23095,15 @@
         <v>135</v>
       </c>
       <c r="E126" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>25</v>
@@ -22623,15 +23115,15 @@
         <v>31</v>
       </c>
       <c r="E127" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F127" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>25</v>
@@ -22643,15 +23135,15 @@
         <v>135</v>
       </c>
       <c r="E128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F128" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>25</v>
@@ -22663,15 +23155,15 @@
         <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F129" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>25</v>
@@ -22683,15 +23175,15 @@
         <v>135</v>
       </c>
       <c r="E130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F130" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>25</v>
@@ -22703,15 +23195,15 @@
         <v>31</v>
       </c>
       <c r="E131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F131" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>25</v>
@@ -22723,15 +23215,15 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>25</v>
@@ -22743,15 +23235,15 @@
         <v>31</v>
       </c>
       <c r="E133" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="F133" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>25</v>
@@ -22763,15 +23255,15 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F134" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>25</v>
@@ -22783,15 +23275,15 @@
         <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F135" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>25</v>
@@ -22803,15 +23295,15 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="F136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>25</v>
@@ -22823,15 +23315,15 @@
         <v>31</v>
       </c>
       <c r="E137" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="F137" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>25</v>
@@ -22843,15 +23335,15 @@
         <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>25</v>
@@ -22863,15 +23355,15 @@
         <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>25</v>
@@ -22883,15 +23375,15 @@
         <v>135</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="F140" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>25</v>
@@ -22903,15 +23395,15 @@
         <v>31</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="F141" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>25</v>
@@ -22923,15 +23415,15 @@
         <v>135</v>
       </c>
       <c r="E142" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>25</v>
@@ -22943,15 +23435,15 @@
         <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>25</v>
@@ -22963,15 +23455,15 @@
         <v>135</v>
       </c>
       <c r="E144" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F144" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>25</v>
@@ -22983,15 +23475,15 @@
         <v>31</v>
       </c>
       <c r="E145" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F145" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>25</v>
@@ -23003,15 +23495,15 @@
         <v>135</v>
       </c>
       <c r="E146" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="F146" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>25</v>
@@ -23023,15 +23515,15 @@
         <v>31</v>
       </c>
       <c r="E147" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="F147" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>25</v>
@@ -23043,15 +23535,15 @@
         <v>135</v>
       </c>
       <c r="E148" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>25</v>
@@ -23063,15 +23555,15 @@
         <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="F149" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>246</v>
+      <c r="A150" t="s">
+        <v>335</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>25</v>
@@ -23083,15 +23575,15 @@
         <v>135</v>
       </c>
       <c r="E150" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="F150" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>246</v>
+      <c r="A151" t="s">
+        <v>335</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>25</v>
@@ -23100,18 +23592,18 @@
         <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E151" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="F151" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>246</v>
+      <c r="A152" t="s">
+        <v>335</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>25</v>
@@ -23123,15 +23615,15 @@
         <v>135</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="F152" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>246</v>
+      <c r="A153" t="s">
+        <v>335</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>25</v>
@@ -23140,18 +23632,18 @@
         <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="F153" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>201</v>
+      <c r="A154" t="s">
+        <v>338</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>25</v>
@@ -23163,15 +23655,15 @@
         <v>135</v>
       </c>
       <c r="E154" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="F154" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
-        <v>201</v>
+      <c r="A155" t="s">
+        <v>338</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>25</v>
@@ -23180,18 +23672,18 @@
         <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E155" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="F155" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>201</v>
+      <c r="A156" t="s">
+        <v>338</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>25</v>
@@ -23203,15 +23695,15 @@
         <v>135</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="F156" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>201</v>
+      <c r="A157" t="s">
+        <v>338</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>25</v>
@@ -23220,18 +23712,18 @@
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E157" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="F157" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>199</v>
+      <c r="A158" t="s">
+        <v>341</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>25</v>
@@ -23243,15 +23735,15 @@
         <v>135</v>
       </c>
       <c r="E158" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="F158" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
-        <v>199</v>
+      <c r="A159" t="s">
+        <v>341</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>25</v>
@@ -23260,18 +23752,18 @@
         <v>26</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E159" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="F159" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>199</v>
+      <c r="A160" t="s">
+        <v>341</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>25</v>
@@ -23283,15 +23775,15 @@
         <v>135</v>
       </c>
       <c r="E160" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="F160" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
-        <v>199</v>
+      <c r="A161" t="s">
+        <v>341</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>25</v>
@@ -23300,18 +23792,18 @@
         <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E161" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="F161" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="1" t="s">
-        <v>200</v>
+      <c r="A162" t="s">
+        <v>344</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>25</v>
@@ -23323,15 +23815,15 @@
         <v>135</v>
       </c>
       <c r="E162" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="F162" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="1" t="s">
-        <v>200</v>
+      <c r="A163" t="s">
+        <v>344</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>25</v>
@@ -23340,18 +23832,18 @@
         <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E163" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="F163" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="1" t="s">
-        <v>200</v>
+      <c r="A164" t="s">
+        <v>344</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>25</v>
@@ -23363,15 +23855,15 @@
         <v>135</v>
       </c>
       <c r="E164" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="F164" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>200</v>
+      <c r="A165" t="s">
+        <v>344</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>25</v>
@@ -23380,18 +23872,18 @@
         <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="E165" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="F165" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
-        <v>200</v>
+      <c r="A166" t="s">
+        <v>347</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>25</v>
@@ -23403,681 +23895,4285 @@
         <v>135</v>
       </c>
       <c r="E166" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="F166" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" t="s">
+        <v>438</v>
+      </c>
+      <c r="E167" t="s">
+        <v>348</v>
+      </c>
+      <c r="F167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" t="s">
+        <v>135</v>
+      </c>
+      <c r="E168" t="s">
+        <v>349</v>
+      </c>
+      <c r="F168" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" t="s">
+        <v>438</v>
+      </c>
+      <c r="E169" t="s">
+        <v>349</v>
+      </c>
+      <c r="F169" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" t="s">
+        <v>351</v>
+      </c>
+      <c r="F170" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" t="s">
+        <v>438</v>
+      </c>
+      <c r="E171" t="s">
+        <v>351</v>
+      </c>
+      <c r="F171" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" t="s">
+        <v>135</v>
+      </c>
+      <c r="E172" t="s">
+        <v>352</v>
+      </c>
+      <c r="F172" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>350</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>438</v>
+      </c>
+      <c r="E173" t="s">
+        <v>352</v>
+      </c>
+      <c r="F173" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" t="s">
+        <v>354</v>
+      </c>
+      <c r="F174" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>353</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>438</v>
+      </c>
+      <c r="E175" t="s">
+        <v>354</v>
+      </c>
+      <c r="F175" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" t="s">
+        <v>355</v>
+      </c>
+      <c r="F176" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>438</v>
+      </c>
+      <c r="E177" t="s">
+        <v>355</v>
+      </c>
+      <c r="F177" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178" t="s">
+        <v>357</v>
+      </c>
+      <c r="F178" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>438</v>
+      </c>
+      <c r="E179" t="s">
+        <v>357</v>
+      </c>
+      <c r="F179" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" t="s">
+        <v>135</v>
+      </c>
+      <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="s">
+        <v>438</v>
+      </c>
+      <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>135</v>
+      </c>
+      <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>359</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>438</v>
+      </c>
+      <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>359</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" t="s">
+        <v>135</v>
+      </c>
+      <c r="E184" t="s">
+        <v>361</v>
+      </c>
+      <c r="F184" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" t="s">
+        <v>438</v>
+      </c>
+      <c r="E185" t="s">
+        <v>361</v>
+      </c>
+      <c r="F185" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" t="s">
+        <v>135</v>
+      </c>
+      <c r="E186" t="s">
+        <v>363</v>
+      </c>
+      <c r="F186" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>362</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" t="s">
+        <v>438</v>
+      </c>
+      <c r="E187" t="s">
+        <v>363</v>
+      </c>
+      <c r="F187" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" t="s">
+        <v>135</v>
+      </c>
+      <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>362</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" t="s">
+        <v>438</v>
+      </c>
+      <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>365</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" t="s">
+        <v>135</v>
+      </c>
+      <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>365</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" t="s">
+        <v>438</v>
+      </c>
+      <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>365</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>135</v>
+      </c>
+      <c r="E192" t="s">
+        <v>367</v>
+      </c>
+      <c r="F192" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" t="s">
+        <v>438</v>
+      </c>
+      <c r="E193" t="s">
+        <v>367</v>
+      </c>
+      <c r="F193" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>368</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" t="s">
+        <v>135</v>
+      </c>
+      <c r="E194" t="s">
+        <v>369</v>
+      </c>
+      <c r="F194" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>368</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>438</v>
+      </c>
+      <c r="E195" t="s">
+        <v>369</v>
+      </c>
+      <c r="F195" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" t="s">
+        <v>135</v>
+      </c>
+      <c r="E196" t="s">
+        <v>370</v>
+      </c>
+      <c r="F196" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>368</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" t="s">
+        <v>438</v>
+      </c>
+      <c r="E197" t="s">
+        <v>370</v>
+      </c>
+      <c r="F197" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>371</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" t="s">
+        <v>135</v>
+      </c>
+      <c r="E198" t="s">
+        <v>372</v>
+      </c>
+      <c r="F198" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" t="s">
+        <v>438</v>
+      </c>
+      <c r="E199" t="s">
+        <v>372</v>
+      </c>
+      <c r="F199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>371</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" t="s">
+        <v>135</v>
+      </c>
+      <c r="E200" t="s">
+        <v>373</v>
+      </c>
+      <c r="F200" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" t="s">
+        <v>438</v>
+      </c>
+      <c r="E201" t="s">
+        <v>373</v>
+      </c>
+      <c r="F201" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>374</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" t="s">
+        <v>135</v>
+      </c>
+      <c r="E202" t="s">
+        <v>375</v>
+      </c>
+      <c r="F202" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>374</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" t="s">
+        <v>438</v>
+      </c>
+      <c r="E203" t="s">
+        <v>375</v>
+      </c>
+      <c r="F203" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>374</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" t="s">
+        <v>135</v>
+      </c>
+      <c r="E204" t="s">
+        <v>376</v>
+      </c>
+      <c r="F204" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>374</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205" t="s">
+        <v>438</v>
+      </c>
+      <c r="E205" t="s">
+        <v>376</v>
+      </c>
+      <c r="F205" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>377</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E206" t="s">
+        <v>378</v>
+      </c>
+      <c r="F206" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>377</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D207" t="s">
+        <v>438</v>
+      </c>
+      <c r="E207" t="s">
+        <v>378</v>
+      </c>
+      <c r="F207" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>377</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" t="s">
+        <v>135</v>
+      </c>
+      <c r="E208" t="s">
+        <v>379</v>
+      </c>
+      <c r="F208" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>377</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209" t="s">
+        <v>438</v>
+      </c>
+      <c r="E209" t="s">
+        <v>379</v>
+      </c>
+      <c r="F209" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>380</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210" t="s">
+        <v>135</v>
+      </c>
+      <c r="E210" t="s">
+        <v>381</v>
+      </c>
+      <c r="F210" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>380</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211" t="s">
+        <v>438</v>
+      </c>
+      <c r="E211" t="s">
+        <v>381</v>
+      </c>
+      <c r="F211" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>380</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212" t="s">
+        <v>135</v>
+      </c>
+      <c r="E212" t="s">
+        <v>382</v>
+      </c>
+      <c r="F212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>380</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213" t="s">
+        <v>438</v>
+      </c>
+      <c r="E213" t="s">
+        <v>382</v>
+      </c>
+      <c r="F213" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>383</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" t="s">
+        <v>135</v>
+      </c>
+      <c r="E214" t="s">
+        <v>384</v>
+      </c>
+      <c r="F214" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>383</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" t="s">
+        <v>26</v>
+      </c>
+      <c r="D215" t="s">
+        <v>438</v>
+      </c>
+      <c r="E215" t="s">
+        <v>384</v>
+      </c>
+      <c r="F215" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>383</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" t="s">
+        <v>135</v>
+      </c>
+      <c r="E216" t="s">
+        <v>385</v>
+      </c>
+      <c r="F216" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>383</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217" t="s">
+        <v>438</v>
+      </c>
+      <c r="E217" t="s">
+        <v>385</v>
+      </c>
+      <c r="F217" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>386</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" t="s">
+        <v>135</v>
+      </c>
+      <c r="E218" t="s">
+        <v>387</v>
+      </c>
+      <c r="F218" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>386</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219" t="s">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>438</v>
+      </c>
+      <c r="E219" t="s">
+        <v>387</v>
+      </c>
+      <c r="F219" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>386</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" t="s">
+        <v>135</v>
+      </c>
+      <c r="E220" t="s">
+        <v>388</v>
+      </c>
+      <c r="F220" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>386</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" t="s">
+        <v>26</v>
+      </c>
+      <c r="D221" t="s">
+        <v>438</v>
+      </c>
+      <c r="E221" t="s">
+        <v>388</v>
+      </c>
+      <c r="F221" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" t="s">
+        <v>135</v>
+      </c>
+      <c r="E222" t="s">
+        <v>390</v>
+      </c>
+      <c r="F222" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>389</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" t="s">
+        <v>438</v>
+      </c>
+      <c r="E223" t="s">
+        <v>390</v>
+      </c>
+      <c r="F223" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>391</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" t="s">
+        <v>135</v>
+      </c>
+      <c r="E224" t="s">
+        <v>392</v>
+      </c>
+      <c r="F224" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>391</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225" t="s">
+        <v>438</v>
+      </c>
+      <c r="E225" t="s">
+        <v>392</v>
+      </c>
+      <c r="F225" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>391</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" t="s">
+        <v>26</v>
+      </c>
+      <c r="D226" t="s">
+        <v>135</v>
+      </c>
+      <c r="E226" t="s">
+        <v>393</v>
+      </c>
+      <c r="F226" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>391</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+      <c r="D227" t="s">
+        <v>438</v>
+      </c>
+      <c r="E227" t="s">
+        <v>393</v>
+      </c>
+      <c r="F227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>394</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" t="s">
+        <v>135</v>
+      </c>
+      <c r="E228" t="s">
+        <v>395</v>
+      </c>
+      <c r="F228" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>394</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229" t="s">
+        <v>438</v>
+      </c>
+      <c r="E229" t="s">
+        <v>395</v>
+      </c>
+      <c r="F229" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>394</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230" t="s">
+        <v>135</v>
+      </c>
+      <c r="E230" t="s">
+        <v>396</v>
+      </c>
+      <c r="F230" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>394</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" t="s">
+        <v>438</v>
+      </c>
+      <c r="E231" t="s">
+        <v>396</v>
+      </c>
+      <c r="F231" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>397</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232" t="s">
+        <v>135</v>
+      </c>
+      <c r="E232" t="s">
+        <v>398</v>
+      </c>
+      <c r="F232" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>397</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" t="s">
+        <v>438</v>
+      </c>
+      <c r="E233" t="s">
+        <v>398</v>
+      </c>
+      <c r="F233" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>397</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" t="s">
+        <v>135</v>
+      </c>
+      <c r="E234" t="s">
+        <v>399</v>
+      </c>
+      <c r="F234" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>397</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" t="s">
+        <v>438</v>
+      </c>
+      <c r="E235" t="s">
+        <v>399</v>
+      </c>
+      <c r="F235" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>400</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>135</v>
+      </c>
+      <c r="E236" t="s">
+        <v>401</v>
+      </c>
+      <c r="F236" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>400</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+      <c r="D237" t="s">
+        <v>438</v>
+      </c>
+      <c r="E237" t="s">
+        <v>401</v>
+      </c>
+      <c r="F237" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>400</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>135</v>
+      </c>
+      <c r="E238" t="s">
+        <v>402</v>
+      </c>
+      <c r="F238" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>400</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>438</v>
+      </c>
+      <c r="E239" t="s">
+        <v>402</v>
+      </c>
+      <c r="F239" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>403</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" t="s">
+        <v>135</v>
+      </c>
+      <c r="E240" t="s">
+        <v>404</v>
+      </c>
+      <c r="F240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>403</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>438</v>
+      </c>
+      <c r="E241" t="s">
+        <v>404</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>403</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" t="s">
+        <v>135</v>
+      </c>
+      <c r="E242" t="s">
+        <v>405</v>
+      </c>
+      <c r="F242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>403</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243" t="s">
+        <v>438</v>
+      </c>
+      <c r="E243" t="s">
+        <v>405</v>
+      </c>
+      <c r="F243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>406</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+      <c r="D244" t="s">
+        <v>135</v>
+      </c>
+      <c r="E244" t="s">
+        <v>407</v>
+      </c>
+      <c r="F244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>406</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" t="s">
+        <v>438</v>
+      </c>
+      <c r="E245" t="s">
+        <v>407</v>
+      </c>
+      <c r="F245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" t="s">
+        <v>135</v>
+      </c>
+      <c r="E246" t="s">
+        <v>408</v>
+      </c>
+      <c r="F246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>406</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" t="s">
+        <v>438</v>
+      </c>
+      <c r="E247" t="s">
+        <v>408</v>
+      </c>
+      <c r="F247" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>409</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" t="s">
+        <v>135</v>
+      </c>
+      <c r="E248" t="s">
+        <v>410</v>
+      </c>
+      <c r="F248" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>409</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" t="s">
+        <v>438</v>
+      </c>
+      <c r="E249" t="s">
+        <v>410</v>
+      </c>
+      <c r="F249" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>409</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" t="s">
+        <v>135</v>
+      </c>
+      <c r="E250" t="s">
+        <v>411</v>
+      </c>
+      <c r="F250" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>409</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" t="s">
+        <v>438</v>
+      </c>
+      <c r="E251" t="s">
+        <v>411</v>
+      </c>
+      <c r="F251" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>412</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" t="s">
+        <v>135</v>
+      </c>
+      <c r="E252" t="s">
+        <v>413</v>
+      </c>
+      <c r="F252" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>412</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253" t="s">
+        <v>438</v>
+      </c>
+      <c r="E253" t="s">
+        <v>413</v>
+      </c>
+      <c r="F253" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>412</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+      <c r="D254" t="s">
+        <v>135</v>
+      </c>
+      <c r="E254" t="s">
+        <v>414</v>
+      </c>
+      <c r="F254" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>412</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" t="s">
+        <v>438</v>
+      </c>
+      <c r="E255" t="s">
+        <v>414</v>
+      </c>
+      <c r="F255" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>415</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" t="s">
+        <v>135</v>
+      </c>
+      <c r="E256" t="s">
+        <v>416</v>
+      </c>
+      <c r="F256" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>415</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" t="s">
+        <v>438</v>
+      </c>
+      <c r="E257" t="s">
+        <v>416</v>
+      </c>
+      <c r="F257" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>415</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>135</v>
+      </c>
+      <c r="E258" t="s">
+        <v>417</v>
+      </c>
+      <c r="F258" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>415</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+      <c r="D259" t="s">
+        <v>438</v>
+      </c>
+      <c r="E259" t="s">
+        <v>417</v>
+      </c>
+      <c r="F259" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>418</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" t="s">
+        <v>135</v>
+      </c>
+      <c r="E260" t="s">
+        <v>419</v>
+      </c>
+      <c r="F260" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>418</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261" t="s">
+        <v>438</v>
+      </c>
+      <c r="E261" t="s">
+        <v>419</v>
+      </c>
+      <c r="F261" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>418</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" t="s">
+        <v>135</v>
+      </c>
+      <c r="E262" t="s">
+        <v>420</v>
+      </c>
+      <c r="F262" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>418</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" t="s">
+        <v>438</v>
+      </c>
+      <c r="E263" t="s">
+        <v>420</v>
+      </c>
+      <c r="F263" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>421</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" t="s">
+        <v>135</v>
+      </c>
+      <c r="E264" t="s">
+        <v>422</v>
+      </c>
+      <c r="F264" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>421</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>438</v>
+      </c>
+      <c r="E265" t="s">
+        <v>422</v>
+      </c>
+      <c r="F265" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>421</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" t="s">
+        <v>135</v>
+      </c>
+      <c r="E266" t="s">
+        <v>423</v>
+      </c>
+      <c r="F266" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>421</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+      <c r="D267" t="s">
+        <v>438</v>
+      </c>
+      <c r="E267" t="s">
+        <v>423</v>
+      </c>
+      <c r="F267" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>424</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" t="s">
+        <v>135</v>
+      </c>
+      <c r="E268" t="s">
+        <v>425</v>
+      </c>
+      <c r="F268" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>424</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+      <c r="D269" t="s">
+        <v>438</v>
+      </c>
+      <c r="E269" t="s">
+        <v>425</v>
+      </c>
+      <c r="F269" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>424</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" t="s">
+        <v>135</v>
+      </c>
+      <c r="E270" t="s">
+        <v>426</v>
+      </c>
+      <c r="F270" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>424</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271" t="s">
+        <v>438</v>
+      </c>
+      <c r="E271" t="s">
+        <v>426</v>
+      </c>
+      <c r="F271" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>427</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" t="s">
+        <v>26</v>
+      </c>
+      <c r="D272" t="s">
+        <v>135</v>
+      </c>
+      <c r="E272" t="s">
+        <v>428</v>
+      </c>
+      <c r="F272" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>427</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+      <c r="D273" t="s">
+        <v>438</v>
+      </c>
+      <c r="E273" t="s">
+        <v>428</v>
+      </c>
+      <c r="F273" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>427</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>26</v>
+      </c>
+      <c r="D274" t="s">
+        <v>135</v>
+      </c>
+      <c r="E274" t="s">
+        <v>429</v>
+      </c>
+      <c r="F274" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>427</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275" t="s">
+        <v>26</v>
+      </c>
+      <c r="D275" t="s">
+        <v>438</v>
+      </c>
+      <c r="E275" t="s">
+        <v>429</v>
+      </c>
+      <c r="F275" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>430</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+      <c r="D276" t="s">
+        <v>135</v>
+      </c>
+      <c r="E276" t="s">
+        <v>431</v>
+      </c>
+      <c r="F276" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>430</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" t="s">
+        <v>438</v>
+      </c>
+      <c r="E277" t="s">
+        <v>431</v>
+      </c>
+      <c r="F277" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>432</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+      <c r="D278" t="s">
+        <v>135</v>
+      </c>
+      <c r="E278" t="s">
+        <v>433</v>
+      </c>
+      <c r="F278" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>432</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" t="s">
+        <v>438</v>
+      </c>
+      <c r="E279" t="s">
+        <v>433</v>
+      </c>
+      <c r="F279" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>432</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280" t="s">
+        <v>135</v>
+      </c>
+      <c r="E280" t="s">
+        <v>434</v>
+      </c>
+      <c r="F280" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>432</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" t="s">
+        <v>438</v>
+      </c>
+      <c r="E281" t="s">
+        <v>434</v>
+      </c>
+      <c r="F281" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>435</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+      <c r="D282" t="s">
+        <v>135</v>
+      </c>
+      <c r="E282" t="s">
+        <v>436</v>
+      </c>
+      <c r="F282" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>435</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+      <c r="D283" t="s">
+        <v>438</v>
+      </c>
+      <c r="E283" t="s">
+        <v>436</v>
+      </c>
+      <c r="F283" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>435</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+      <c r="D284" t="s">
+        <v>135</v>
+      </c>
+      <c r="E284" t="s">
+        <v>437</v>
+      </c>
+      <c r="F284" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>435</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C285" t="s">
+        <v>26</v>
+      </c>
+      <c r="D285" t="s">
+        <v>438</v>
+      </c>
+      <c r="E285" t="s">
+        <v>437</v>
+      </c>
+      <c r="F285" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A286" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" t="s">
+        <v>26</v>
+      </c>
+      <c r="D286" t="s">
+        <v>135</v>
+      </c>
+      <c r="E286" t="s">
+        <v>136</v>
+      </c>
+      <c r="F286" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" t="s">
+        <v>135</v>
+      </c>
+      <c r="E287" t="s">
+        <v>137</v>
+      </c>
+      <c r="F287" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" t="s">
+        <v>31</v>
+      </c>
+      <c r="E288" t="s">
+        <v>136</v>
+      </c>
+      <c r="F288" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C289" t="s">
+        <v>26</v>
+      </c>
+      <c r="D289" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" t="s">
+        <v>235</v>
+      </c>
+      <c r="F289" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C290" t="s">
+        <v>26</v>
+      </c>
+      <c r="D290" t="s">
+        <v>135</v>
+      </c>
+      <c r="E290" t="s">
+        <v>236</v>
+      </c>
+      <c r="F290" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C291" t="s">
+        <v>26</v>
+      </c>
+      <c r="D291" t="s">
+        <v>31</v>
+      </c>
+      <c r="E291" t="s">
+        <v>236</v>
+      </c>
+      <c r="F291" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+      <c r="D292" t="s">
+        <v>135</v>
+      </c>
+      <c r="E292" t="s">
+        <v>138</v>
+      </c>
+      <c r="F292" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C293" t="s">
+        <v>26</v>
+      </c>
+      <c r="D293" t="s">
+        <v>31</v>
+      </c>
+      <c r="E293" t="s">
+        <v>237</v>
+      </c>
+      <c r="F293" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C294" t="s">
+        <v>26</v>
+      </c>
+      <c r="D294" t="s">
+        <v>135</v>
+      </c>
+      <c r="E294" t="s">
+        <v>238</v>
+      </c>
+      <c r="F294" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C295" t="s">
+        <v>26</v>
+      </c>
+      <c r="D295" t="s">
+        <v>31</v>
+      </c>
+      <c r="E295" t="s">
+        <v>238</v>
+      </c>
+      <c r="F295" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C296" t="s">
+        <v>26</v>
+      </c>
+      <c r="D296" t="s">
+        <v>135</v>
+      </c>
+      <c r="E296" t="s">
+        <v>139</v>
+      </c>
+      <c r="F296" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C297" t="s">
+        <v>26</v>
+      </c>
+      <c r="D297" t="s">
+        <v>31</v>
+      </c>
+      <c r="E297" t="s">
+        <v>239</v>
+      </c>
+      <c r="F297" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" t="s">
+        <v>26</v>
+      </c>
+      <c r="D298" t="s">
+        <v>135</v>
+      </c>
+      <c r="E298" t="s">
+        <v>240</v>
+      </c>
+      <c r="F298" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C299" t="s">
+        <v>26</v>
+      </c>
+      <c r="D299" t="s">
+        <v>31</v>
+      </c>
+      <c r="E299" t="s">
+        <v>240</v>
+      </c>
+      <c r="F299" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C300" t="s">
+        <v>26</v>
+      </c>
+      <c r="D300" t="s">
+        <v>135</v>
+      </c>
+      <c r="E300" t="s">
+        <v>142</v>
+      </c>
+      <c r="F300" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A301" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C301" t="s">
+        <v>26</v>
+      </c>
+      <c r="D301" t="s">
+        <v>31</v>
+      </c>
+      <c r="E301" t="s">
+        <v>142</v>
+      </c>
+      <c r="F301" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302" t="s">
+        <v>26</v>
+      </c>
+      <c r="D302" t="s">
+        <v>135</v>
+      </c>
+      <c r="E302" t="s">
+        <v>143</v>
+      </c>
+      <c r="F302" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C303" t="s">
+        <v>26</v>
+      </c>
+      <c r="D303" t="s">
+        <v>31</v>
+      </c>
+      <c r="E303" t="s">
+        <v>143</v>
+      </c>
+      <c r="F303" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C304" t="s">
+        <v>26</v>
+      </c>
+      <c r="D304" t="s">
+        <v>135</v>
+      </c>
+      <c r="E304" t="s">
+        <v>246</v>
+      </c>
+      <c r="F304" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+      <c r="D305" t="s">
+        <v>31</v>
+      </c>
+      <c r="E305" t="s">
+        <v>246</v>
+      </c>
+      <c r="F305" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C306" t="s">
+        <v>26</v>
+      </c>
+      <c r="D306" t="s">
+        <v>135</v>
+      </c>
+      <c r="E306" t="s">
+        <v>144</v>
+      </c>
+      <c r="F306" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307" t="s">
+        <v>26</v>
+      </c>
+      <c r="D307" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307" t="s">
+        <v>144</v>
+      </c>
+      <c r="F307" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308" t="s">
+        <v>26</v>
+      </c>
+      <c r="D308" t="s">
+        <v>135</v>
+      </c>
+      <c r="E308" t="s">
+        <v>247</v>
+      </c>
+      <c r="F308" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309" t="s">
+        <v>26</v>
+      </c>
+      <c r="D309" t="s">
+        <v>31</v>
+      </c>
+      <c r="E309" t="s">
+        <v>247</v>
+      </c>
+      <c r="F309" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" t="s">
+        <v>26</v>
+      </c>
+      <c r="D310" t="s">
+        <v>135</v>
+      </c>
+      <c r="E310" t="s">
+        <v>145</v>
+      </c>
+      <c r="F310" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C311" t="s">
+        <v>26</v>
+      </c>
+      <c r="D311" t="s">
+        <v>31</v>
+      </c>
+      <c r="E311" t="s">
+        <v>145</v>
+      </c>
+      <c r="F311" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312" t="s">
+        <v>135</v>
+      </c>
+      <c r="E312" t="s">
+        <v>248</v>
+      </c>
+      <c r="F312" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A313" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C313" t="s">
+        <v>26</v>
+      </c>
+      <c r="D313" t="s">
+        <v>31</v>
+      </c>
+      <c r="E313" t="s">
+        <v>248</v>
+      </c>
+      <c r="F313" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314" t="s">
+        <v>26</v>
+      </c>
+      <c r="D314" t="s">
+        <v>135</v>
+      </c>
+      <c r="E314" t="s">
+        <v>146</v>
+      </c>
+      <c r="F314" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C315" t="s">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>31</v>
+      </c>
+      <c r="E315" t="s">
+        <v>146</v>
+      </c>
+      <c r="F315" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" t="s">
+        <v>26</v>
+      </c>
+      <c r="D316" t="s">
+        <v>135</v>
+      </c>
+      <c r="E316" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C167" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="F316" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C317" t="s">
+        <v>26</v>
+      </c>
+      <c r="D317" t="s">
         <v>31</v>
       </c>
-      <c r="E167" t="s">
-        <v>280</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="E317" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B216" s="1"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B247" s="1"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B248" s="1"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B249" s="1"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B251" s="1"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B252" s="1"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B253" s="1"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B254" s="1"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B255" s="1"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B256" s="1"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B257" s="1"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B258" s="1"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B259" s="1"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B260" s="1"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B261" s="1"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B262" s="1"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B263" s="1"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B264" s="1"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B265" s="1"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B266" s="1"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B267" s="1"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B268" s="1"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B269" s="1"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B270" s="1"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B271" s="1"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B273" s="1"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B274" s="1"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B275" s="1"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B276" s="1"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B277" s="1"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B278" s="1"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B279" s="1"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B280" s="1"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B281" s="1"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B282" s="1"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B283" s="1"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B284" s="1"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B285" s="1"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B286" s="1"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B287" s="1"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B289" s="1"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B290" s="1"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B292" s="1"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B293" s="1"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B294" s="1"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B295" s="1"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B296" s="1"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B297" s="1"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B298" s="1"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B299" s="1"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B300" s="1"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B301" s="1"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B302" s="1"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B303" s="1"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B304" s="1"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B305" s="1"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B309" s="1"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B310" s="1"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B311" s="1"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B312" s="1"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B313" s="1"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B314" s="1"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B315" s="1"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B316" s="1"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B317" s="1"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B318" s="1"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B319" s="1"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B320" s="1"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B321" s="1"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B322" s="1"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B324" s="1"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B325" s="1"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B326" s="1"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B328" s="1"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B329" s="1"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B330" s="1"/>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B331" s="1"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B332" s="1"/>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B333" s="1"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B334" s="1"/>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B335" s="1"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B343" s="1"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B346" s="1"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B347" s="1"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B348" s="1"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B367" s="1"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B371" s="1"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B372" s="1"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B373" s="1"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B374" s="1"/>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B375" s="1"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B376" s="1"/>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B377" s="1"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B378" s="1"/>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B379" s="1"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="F317" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C318" t="s">
+        <v>26</v>
+      </c>
+      <c r="D318" t="s">
+        <v>135</v>
+      </c>
+      <c r="E318" t="s">
+        <v>147</v>
+      </c>
+      <c r="F318" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A319" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C319" t="s">
+        <v>26</v>
+      </c>
+      <c r="D319" t="s">
+        <v>31</v>
+      </c>
+      <c r="E319" t="s">
+        <v>147</v>
+      </c>
+      <c r="F319" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+      <c r="D320" t="s">
+        <v>135</v>
+      </c>
+      <c r="E320" t="s">
+        <v>148</v>
+      </c>
+      <c r="F320" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C321" t="s">
+        <v>26</v>
+      </c>
+      <c r="D321" t="s">
+        <v>31</v>
+      </c>
+      <c r="E321" t="s">
+        <v>148</v>
+      </c>
+      <c r="F321" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+      <c r="D322" t="s">
+        <v>135</v>
+      </c>
+      <c r="E322" t="s">
+        <v>250</v>
+      </c>
+      <c r="F322" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A323" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C323" t="s">
+        <v>26</v>
+      </c>
+      <c r="D323" t="s">
+        <v>31</v>
+      </c>
+      <c r="E323" t="s">
+        <v>250</v>
+      </c>
+      <c r="F323" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A324" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C324" t="s">
+        <v>26</v>
+      </c>
+      <c r="D324" t="s">
+        <v>135</v>
+      </c>
+      <c r="E324" t="s">
+        <v>149</v>
+      </c>
+      <c r="F324" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A325" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>31</v>
+      </c>
+      <c r="E325" t="s">
+        <v>149</v>
+      </c>
+      <c r="F325" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A326" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C326" t="s">
+        <v>26</v>
+      </c>
+      <c r="D326" t="s">
+        <v>135</v>
+      </c>
+      <c r="E326" t="s">
+        <v>251</v>
+      </c>
+      <c r="F326" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A327" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" t="s">
+        <v>31</v>
+      </c>
+      <c r="E327" t="s">
+        <v>251</v>
+      </c>
+      <c r="F327" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" t="s">
+        <v>135</v>
+      </c>
+      <c r="E328" t="s">
+        <v>151</v>
+      </c>
+      <c r="F328" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C329" t="s">
+        <v>26</v>
+      </c>
+      <c r="D329" t="s">
+        <v>31</v>
+      </c>
+      <c r="E329" t="s">
+        <v>152</v>
+      </c>
+      <c r="F329" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A330" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C330" t="s">
+        <v>26</v>
+      </c>
+      <c r="D330" t="s">
+        <v>135</v>
+      </c>
+      <c r="E330" t="s">
+        <v>151</v>
+      </c>
+      <c r="F330" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A331" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331" t="s">
+        <v>31</v>
+      </c>
+      <c r="E331" t="s">
+        <v>152</v>
+      </c>
+      <c r="F331" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+      <c r="D332" t="s">
+        <v>135</v>
+      </c>
+      <c r="E332" t="s">
+        <v>252</v>
+      </c>
+      <c r="F332" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+      <c r="D333" t="s">
+        <v>31</v>
+      </c>
+      <c r="E333" t="s">
+        <v>252</v>
+      </c>
+      <c r="F333" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A334" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+      <c r="D334" t="s">
+        <v>135</v>
+      </c>
+      <c r="E334" t="s">
+        <v>153</v>
+      </c>
+      <c r="F334" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+      <c r="D335" t="s">
+        <v>31</v>
+      </c>
+      <c r="E335" t="s">
+        <v>153</v>
+      </c>
+      <c r="F335" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" t="s">
+        <v>135</v>
+      </c>
+      <c r="E336" t="s">
+        <v>154</v>
+      </c>
+      <c r="F336" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C337" t="s">
+        <v>26</v>
+      </c>
+      <c r="D337" t="s">
+        <v>31</v>
+      </c>
+      <c r="E337" t="s">
+        <v>154</v>
+      </c>
+      <c r="F337" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C338" t="s">
+        <v>26</v>
+      </c>
+      <c r="D338" t="s">
+        <v>135</v>
+      </c>
+      <c r="E338" t="s">
+        <v>253</v>
+      </c>
+      <c r="F338" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C339" t="s">
+        <v>26</v>
+      </c>
+      <c r="D339" t="s">
+        <v>31</v>
+      </c>
+      <c r="E339" t="s">
+        <v>253</v>
+      </c>
+      <c r="F339" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A340" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+      <c r="D340" t="s">
+        <v>135</v>
+      </c>
+      <c r="E340" t="s">
+        <v>155</v>
+      </c>
+      <c r="F340" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A341" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C341" t="s">
+        <v>26</v>
+      </c>
+      <c r="D341" t="s">
+        <v>31</v>
+      </c>
+      <c r="E341" t="s">
+        <v>155</v>
+      </c>
+      <c r="F341" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A342" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+      <c r="D342" t="s">
+        <v>135</v>
+      </c>
+      <c r="E342" t="s">
+        <v>254</v>
+      </c>
+      <c r="F342" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A343" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C343" t="s">
+        <v>26</v>
+      </c>
+      <c r="D343" t="s">
+        <v>31</v>
+      </c>
+      <c r="E343" t="s">
+        <v>254</v>
+      </c>
+      <c r="F343" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A344" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C344" t="s">
+        <v>26</v>
+      </c>
+      <c r="D344" t="s">
+        <v>135</v>
+      </c>
+      <c r="E344" t="s">
+        <v>156</v>
+      </c>
+      <c r="F344" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A345" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+      <c r="D345" t="s">
+        <v>31</v>
+      </c>
+      <c r="E345" t="s">
+        <v>157</v>
+      </c>
+      <c r="F345" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" t="s">
+        <v>26</v>
+      </c>
+      <c r="D346" t="s">
+        <v>135</v>
+      </c>
+      <c r="E346" t="s">
+        <v>156</v>
+      </c>
+      <c r="F346" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A347" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C347" t="s">
+        <v>26</v>
+      </c>
+      <c r="D347" t="s">
+        <v>31</v>
+      </c>
+      <c r="E347" t="s">
+        <v>157</v>
+      </c>
+      <c r="F347" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A348" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+      <c r="D348" t="s">
+        <v>135</v>
+      </c>
+      <c r="E348" t="s">
+        <v>255</v>
+      </c>
+      <c r="F348" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A349" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C349" t="s">
+        <v>26</v>
+      </c>
+      <c r="D349" t="s">
+        <v>31</v>
+      </c>
+      <c r="E349" t="s">
+        <v>255</v>
+      </c>
+      <c r="F349" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+      <c r="D350" t="s">
+        <v>135</v>
+      </c>
+      <c r="E350" t="s">
+        <v>159</v>
+      </c>
+      <c r="F350" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C351" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351" t="s">
+        <v>31</v>
+      </c>
+      <c r="E351" t="s">
+        <v>159</v>
+      </c>
+      <c r="F351" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" t="s">
+        <v>26</v>
+      </c>
+      <c r="D352" t="s">
+        <v>135</v>
+      </c>
+      <c r="E352" t="s">
+        <v>256</v>
+      </c>
+      <c r="F352" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C353" t="s">
+        <v>26</v>
+      </c>
+      <c r="D353" t="s">
+        <v>31</v>
+      </c>
+      <c r="E353" t="s">
+        <v>256</v>
+      </c>
+      <c r="F353" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A354" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C354" t="s">
+        <v>26</v>
+      </c>
+      <c r="D354" t="s">
+        <v>135</v>
+      </c>
+      <c r="E354" t="s">
+        <v>160</v>
+      </c>
+      <c r="F354" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A355" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C355" t="s">
+        <v>26</v>
+      </c>
+      <c r="D355" t="s">
+        <v>31</v>
+      </c>
+      <c r="E355" t="s">
+        <v>160</v>
+      </c>
+      <c r="F355" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A356" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+      <c r="D356" t="s">
+        <v>135</v>
+      </c>
+      <c r="E356" t="s">
+        <v>257</v>
+      </c>
+      <c r="F356" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A357" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C357" t="s">
+        <v>26</v>
+      </c>
+      <c r="D357" t="s">
+        <v>31</v>
+      </c>
+      <c r="E357" t="s">
+        <v>257</v>
+      </c>
+      <c r="F357" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" t="s">
+        <v>26</v>
+      </c>
+      <c r="D358" t="s">
+        <v>135</v>
+      </c>
+      <c r="E358" t="s">
+        <v>161</v>
+      </c>
+      <c r="F358" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A359" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C359" t="s">
+        <v>26</v>
+      </c>
+      <c r="D359" t="s">
+        <v>31</v>
+      </c>
+      <c r="E359" t="s">
+        <v>161</v>
+      </c>
+      <c r="F359" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C360" t="s">
+        <v>26</v>
+      </c>
+      <c r="D360" t="s">
+        <v>135</v>
+      </c>
+      <c r="E360" t="s">
+        <v>258</v>
+      </c>
+      <c r="F360" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C361" t="s">
+        <v>26</v>
+      </c>
+      <c r="D361" t="s">
+        <v>31</v>
+      </c>
+      <c r="E361" t="s">
+        <v>258</v>
+      </c>
+      <c r="F361" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A362" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" t="s">
+        <v>135</v>
+      </c>
+      <c r="E362" t="s">
+        <v>162</v>
+      </c>
+      <c r="F362" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A363" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C363" t="s">
+        <v>26</v>
+      </c>
+      <c r="D363" t="s">
+        <v>31</v>
+      </c>
+      <c r="E363" t="s">
+        <v>162</v>
+      </c>
+      <c r="F363" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A364" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C364" t="s">
+        <v>26</v>
+      </c>
+      <c r="D364" t="s">
+        <v>135</v>
+      </c>
+      <c r="E364" t="s">
+        <v>259</v>
+      </c>
+      <c r="F364" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A365" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C365" t="s">
+        <v>26</v>
+      </c>
+      <c r="D365" t="s">
+        <v>31</v>
+      </c>
+      <c r="E365" t="s">
+        <v>259</v>
+      </c>
+      <c r="F365" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A366" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C366" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366" t="s">
+        <v>135</v>
+      </c>
+      <c r="E366" t="s">
+        <v>163</v>
+      </c>
+      <c r="F366" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A367" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C367" t="s">
+        <v>26</v>
+      </c>
+      <c r="D367" t="s">
+        <v>31</v>
+      </c>
+      <c r="E367" t="s">
+        <v>163</v>
+      </c>
+      <c r="F367" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A368" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C368" t="s">
+        <v>26</v>
+      </c>
+      <c r="D368" t="s">
+        <v>135</v>
+      </c>
+      <c r="E368" t="s">
+        <v>165</v>
+      </c>
+      <c r="F368" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A369" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C369" t="s">
+        <v>26</v>
+      </c>
+      <c r="D369" t="s">
+        <v>31</v>
+      </c>
+      <c r="E369" t="s">
+        <v>165</v>
+      </c>
+      <c r="F369" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A370" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C370" t="s">
+        <v>26</v>
+      </c>
+      <c r="D370" t="s">
+        <v>135</v>
+      </c>
+      <c r="E370" t="s">
+        <v>276</v>
+      </c>
+      <c r="F370" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A371" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C371" t="s">
+        <v>26</v>
+      </c>
+      <c r="D371" t="s">
+        <v>31</v>
+      </c>
+      <c r="E371" t="s">
+        <v>260</v>
+      </c>
+      <c r="F371" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A372" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C372" t="s">
+        <v>26</v>
+      </c>
+      <c r="D372" t="s">
+        <v>135</v>
+      </c>
+      <c r="E372" t="s">
+        <v>167</v>
+      </c>
+      <c r="F372" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A373" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C373" t="s">
+        <v>26</v>
+      </c>
+      <c r="D373" t="s">
+        <v>31</v>
+      </c>
+      <c r="E373" t="s">
+        <v>167</v>
+      </c>
+      <c r="F373" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A374" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C374" t="s">
+        <v>26</v>
+      </c>
+      <c r="D374" t="s">
+        <v>135</v>
+      </c>
+      <c r="E374" t="s">
+        <v>261</v>
+      </c>
+      <c r="F374" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A375" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" t="s">
+        <v>26</v>
+      </c>
+      <c r="D375" t="s">
+        <v>31</v>
+      </c>
+      <c r="E375" t="s">
+        <v>261</v>
+      </c>
+      <c r="F375" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A376" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376" t="s">
+        <v>26</v>
+      </c>
+      <c r="D376" t="s">
+        <v>135</v>
+      </c>
+      <c r="E376" t="s">
+        <v>169</v>
+      </c>
+      <c r="F376" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A377" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C377" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" t="s">
+        <v>31</v>
+      </c>
+      <c r="E377" t="s">
+        <v>169</v>
+      </c>
+      <c r="F377" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A378" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C378" t="s">
+        <v>26</v>
+      </c>
+      <c r="D378" t="s">
+        <v>135</v>
+      </c>
+      <c r="E378" t="s">
+        <v>262</v>
+      </c>
+      <c r="F378" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A379" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C379" t="s">
+        <v>26</v>
+      </c>
+      <c r="D379" t="s">
+        <v>31</v>
+      </c>
+      <c r="E379" t="s">
+        <v>262</v>
+      </c>
+      <c r="F379" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B384" s="1"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.15">
@@ -24740,11 +28836,8 @@
     <row r="604" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B604" s="1"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B605" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F167"/>
+  <autoFilter ref="A1:F342"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24774,15 +28867,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -24790,106 +28883,106 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/各地组播源汇总/上海.xlsx
+++ b/各地组播源汇总/上海.xlsx
@@ -26312,10 +26312,10 @@
         <v>26</v>
       </c>
       <c r="D287" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E287" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F287" t="s">
         <v>244</v>
@@ -26332,10 +26332,10 @@
         <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E288" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F288" t="s">
         <v>244</v>
